--- a/help/grip_and_ori_d.xlsx
+++ b/help/grip_and_ori_d.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Наличе тест-систем для лабораторной диагностики респираторных вирусных инфекций, абс.</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>D3.2</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
@@ -133,12 +136,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -232,7 +241,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +251,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,10 +597,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,35 +616,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -694,6 +706,35 @@
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(B7:B1118)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:G6" si="0">SUM(C7:C1118)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
